--- a/www/IndicatorsPerCountry/Israel_GDPperCapita_TerritorialRef_1979_2012_CCode_376.xlsx
+++ b/www/IndicatorsPerCountry/Israel_GDPperCapita_TerritorialRef_1979_2012_CCode_376.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Israel_GDPperCapita_TerritorialRef_1979_2012_CCode_376.xlsx
+++ b/www/IndicatorsPerCountry/Israel_GDPperCapita_TerritorialRef_1979_2012_CCode_376.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2817</t>
-  </si>
-  <si>
-    <t>3159</t>
-  </si>
-  <si>
-    <t>3029</t>
-  </si>
-  <si>
-    <t>2910</t>
-  </si>
-  <si>
-    <t>3374</t>
-  </si>
-  <si>
-    <t>3701</t>
-  </si>
-  <si>
-    <t>3860</t>
-  </si>
-  <si>
-    <t>3992</t>
-  </si>
-  <si>
-    <t>4109</t>
-  </si>
-  <si>
-    <t>4501</t>
-  </si>
-  <si>
-    <t>4663</t>
-  </si>
-  <si>
-    <t>4996</t>
-  </si>
-  <si>
-    <t>5267</t>
-  </si>
-  <si>
-    <t>5593</t>
-  </si>
-  <si>
-    <t>5916</t>
-  </si>
-  <si>
-    <t>6272</t>
-  </si>
-  <si>
-    <t>6190</t>
-  </si>
-  <si>
-    <t>6222</t>
-  </si>
-  <si>
-    <t>7033</t>
-  </si>
-  <si>
-    <t>7723</t>
-  </si>
-  <si>
-    <t>8101</t>
-  </si>
-  <si>
-    <t>8711</t>
-  </si>
-  <si>
-    <t>9478</t>
-  </si>
-  <si>
-    <t>9645</t>
-  </si>
-  <si>
-    <t>10025</t>
-  </si>
-  <si>
-    <t>10148</t>
-  </si>
-  <si>
-    <t>10071</t>
-  </si>
-  <si>
-    <t>9863</t>
-  </si>
-  <si>
-    <t>10125</t>
-  </si>
-  <si>
-    <t>10515</t>
-  </si>
-  <si>
-    <t>10984</t>
-  </si>
-  <si>
-    <t>11357</t>
-  </si>
-  <si>
-    <t>11390</t>
-  </si>
-  <si>
-    <t>11586</t>
-  </si>
-  <si>
-    <t>11484</t>
-  </si>
-  <si>
-    <t>11672</t>
-  </si>
-  <si>
-    <t>12020</t>
-  </si>
-  <si>
-    <t>12670</t>
-  </si>
-  <si>
-    <t>12708</t>
-  </si>
-  <si>
-    <t>12604</t>
-  </si>
-  <si>
-    <t>13066.8786751</t>
-  </si>
-  <si>
-    <t>13557.1134828</t>
-  </si>
-  <si>
-    <t>14084.5999759</t>
-  </si>
-  <si>
-    <t>14150.0349156</t>
-  </si>
-  <si>
-    <t>14680.8783233</t>
-  </si>
-  <si>
-    <t>15133.226849</t>
-  </si>
-  <si>
-    <t>15496.1465368</t>
-  </si>
-  <si>
-    <t>15606.651131</t>
-  </si>
-  <si>
-    <t>15833.4369131</t>
-  </si>
-  <si>
-    <t>15948.6535051</t>
-  </si>
-  <si>
-    <t>16985.0193881</t>
-  </si>
-  <si>
-    <t>16576.3100391</t>
-  </si>
-  <si>
-    <t>16175.0518876</t>
-  </si>
-  <si>
-    <t>16110.138449</t>
-  </si>
-  <si>
-    <t>16569.4460185</t>
-  </si>
-  <si>
-    <t>17065.2328665</t>
-  </si>
-  <si>
-    <t>17694.6022065</t>
-  </si>
-  <si>
-    <t>18338.2918029</t>
-  </si>
-  <si>
-    <t>18748.9539337</t>
-  </si>
-  <si>
-    <t>18588.7623208</t>
-  </si>
-  <si>
-    <t>19170.7834794</t>
+    <t>4490</t>
+  </si>
+  <si>
+    <t>5035</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>4638</t>
+  </si>
+  <si>
+    <t>5378</t>
+  </si>
+  <si>
+    <t>5899</t>
+  </si>
+  <si>
+    <t>6153</t>
+  </si>
+  <si>
+    <t>6363</t>
+  </si>
+  <si>
+    <t>6550</t>
+  </si>
+  <si>
+    <t>7175</t>
+  </si>
+  <si>
+    <t>7433</t>
+  </si>
+  <si>
+    <t>7964</t>
+  </si>
+  <si>
+    <t>8396</t>
+  </si>
+  <si>
+    <t>8915</t>
+  </si>
+  <si>
+    <t>9430</t>
+  </si>
+  <si>
+    <t>9997</t>
+  </si>
+  <si>
+    <t>9867</t>
+  </si>
+  <si>
+    <t>9918</t>
+  </si>
+  <si>
+    <t>11210</t>
+  </si>
+  <si>
+    <t>12310</t>
+  </si>
+  <si>
+    <t>12913</t>
+  </si>
+  <si>
+    <t>13885</t>
+  </si>
+  <si>
+    <t>15108</t>
+  </si>
+  <si>
+    <t>15374</t>
+  </si>
+  <si>
+    <t>15980</t>
+  </si>
+  <si>
+    <t>16176</t>
+  </si>
+  <si>
+    <t>16053</t>
+  </si>
+  <si>
+    <t>15721</t>
+  </si>
+  <si>
+    <t>16139</t>
+  </si>
+  <si>
+    <t>16761</t>
+  </si>
+  <si>
+    <t>17508</t>
+  </si>
+  <si>
+    <t>18103</t>
+  </si>
+  <si>
+    <t>18155</t>
+  </si>
+  <si>
+    <t>18468</t>
+  </si>
+  <si>
+    <t>18305</t>
+  </si>
+  <si>
+    <t>18605</t>
+  </si>
+  <si>
+    <t>19160</t>
+  </si>
+  <si>
+    <t>20196</t>
+  </si>
+  <si>
+    <t>20256</t>
+  </si>
+  <si>
+    <t>20091</t>
+  </si>
+  <si>
+    <t>20829</t>
+  </si>
+  <si>
+    <t>20912.9405946244</t>
+  </si>
+  <si>
+    <t>21531.5961416535</t>
+  </si>
+  <si>
+    <t>21484.9793858044</t>
+  </si>
+  <si>
+    <t>22128.8046843923</t>
+  </si>
+  <si>
+    <t>23378.1595281805</t>
+  </si>
+  <si>
+    <t>23979.9952749834</t>
+  </si>
+  <si>
+    <t>24226.7311877193</t>
+  </si>
+  <si>
+    <t>24506.1607353234</t>
+  </si>
+  <si>
+    <t>24644.2042730325</t>
+  </si>
+  <si>
+    <t>26058.8405870726</t>
+  </si>
+  <si>
+    <t>25427.3193823666</t>
+  </si>
+  <si>
+    <t>24823.552894204</t>
+  </si>
+  <si>
+    <t>24545.2450475457</t>
+  </si>
+  <si>
+    <t>25210.8787561371</t>
+  </si>
+  <si>
+    <t>25686.4057017676</t>
+  </si>
+  <si>
+    <t>26571.255443271</t>
+  </si>
+  <si>
+    <t>27624.883102167</t>
+  </si>
+  <si>
+    <t>27857.6186676969</t>
+  </si>
+  <si>
+    <t>27644.6974945809</t>
+  </si>
+  <si>
+    <t>28575.531463221</t>
+  </si>
+  <si>
+    <t>29370</t>
+  </si>
+  <si>
+    <t>29517</t>
+  </si>
+  <si>
+    <t>30257</t>
+  </si>
+  <si>
+    <t>30686</t>
+  </si>
+  <si>
+    <t>30954</t>
+  </si>
+  <si>
+    <t>31701</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
